--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ccl12</t>
+  </si>
+  <si>
+    <t>Ccr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl12</t>
-  </si>
-  <si>
-    <t>Ccr1</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>20.23247666666667</v>
+      </c>
+      <c r="H2">
+        <v>60.69743</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>3.288126333333333</v>
-      </c>
-      <c r="H2">
-        <v>9.864379</v>
-      </c>
-      <c r="I2">
-        <v>0.05813306630866938</v>
-      </c>
-      <c r="J2">
-        <v>0.05813306630866937</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>114.5606336666667</v>
+        <v>0.04191666666666666</v>
       </c>
       <c r="N2">
-        <v>343.681901</v>
+        <v>0.12575</v>
       </c>
       <c r="O2">
-        <v>0.7368570786832789</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="P2">
-        <v>0.736857078683279</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="Q2">
-        <v>376.6898363227199</v>
+        <v>0.8480779802777777</v>
       </c>
       <c r="R2">
-        <v>3390.208526904479</v>
+        <v>7.6327018225</v>
       </c>
       <c r="S2">
-        <v>0.04283576141510746</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="T2">
-        <v>0.04283576141510746</v>
+        <v>0.007985764192544619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.288126333333333</v>
+        <v>20.23247666666667</v>
       </c>
       <c r="H3">
-        <v>9.864379</v>
+        <v>60.69743</v>
       </c>
       <c r="I3">
-        <v>0.05813306630866938</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.05813306630866937</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,152 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.91135266666667</v>
+        <v>5.207007</v>
       </c>
       <c r="N3">
-        <v>122.734058</v>
+        <v>15.621021</v>
       </c>
       <c r="O3">
-        <v>0.263142921316721</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="P3">
-        <v>0.2631429213167211</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="Q3">
-        <v>134.5216960355535</v>
+        <v>105.35064763067</v>
       </c>
       <c r="R3">
-        <v>1210.695264319982</v>
+        <v>948.1558286760298</v>
       </c>
       <c r="S3">
-        <v>0.01529730489356191</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="T3">
-        <v>0.01529730489356191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>53.27393966666666</v>
-      </c>
-      <c r="H4">
-        <v>159.821819</v>
-      </c>
-      <c r="I4">
-        <v>0.9418669336913307</v>
-      </c>
-      <c r="J4">
-        <v>0.9418669336913306</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>114.5606336666667</v>
-      </c>
-      <c r="N4">
-        <v>343.681901</v>
-      </c>
-      <c r="O4">
-        <v>0.7368570786832789</v>
-      </c>
-      <c r="P4">
-        <v>0.736857078683279</v>
-      </c>
-      <c r="Q4">
-        <v>6103.096286133102</v>
-      </c>
-      <c r="R4">
-        <v>54927.86657519792</v>
-      </c>
-      <c r="S4">
-        <v>0.6940213172681715</v>
-      </c>
-      <c r="T4">
-        <v>0.6940213172681715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>53.27393966666666</v>
-      </c>
-      <c r="H5">
-        <v>159.821819</v>
-      </c>
-      <c r="I5">
-        <v>0.9418669336913307</v>
-      </c>
-      <c r="J5">
-        <v>0.9418669336913306</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>40.91135266666667</v>
-      </c>
-      <c r="N5">
-        <v>122.734058</v>
-      </c>
-      <c r="O5">
-        <v>0.263142921316721</v>
-      </c>
-      <c r="P5">
-        <v>0.2631429213167211</v>
-      </c>
-      <c r="Q5">
-        <v>2179.508933645722</v>
-      </c>
-      <c r="R5">
-        <v>19615.5804028115</v>
-      </c>
-      <c r="S5">
-        <v>0.2478456164231591</v>
-      </c>
-      <c r="T5">
-        <v>0.2478456164231591</v>
+        <v>0.9920142358074554</v>
       </c>
     </row>
   </sheetData>
